--- a/RestfulAPITest/Http_Request_workbook_Data.xlsx
+++ b/RestfulAPITest/Http_Request_workbook_Data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="90">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,122 +136,245 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"rating":{"max":10,"numRaters":344,"average":"7.0","min":0},"subtitle":"","author":["[日] 片山恭一"],"pubdate":"2005-1","tags":[{"count":133,"name":"片山恭一","title":"片山恭一"},{"count":62,"name":"日本","title":"日本"},{"count":60,"name":"日本文学","title":"日本文学"},{"count":38,"name":"小说","title":"小说"},{"count":32,"name":"满月之夜白鲸现","title":"满月之夜白鲸现"},{"count":15,"name":"爱情","title":"爱情"},{"count":8,"name":"純愛","title":"純愛"},{"count":8,"name":"外国文学","title":"外国文学"}],"origin_title":"","image":"http:\/\/img3.douban.com\/mpic\/s1747553.jpg","binding":"平装","translator":["豫人"],"catalog":"\n ","pages":"180","images":{"small":"http:\/\/img3.douban.com\/spic\/s1747553.jpg","large":"http:\/\/img3.douban.com\/lpic\/s1747553.jpg","medium":"http:\/\/img3.douban.com\/mpic\/s1747553.jpg"},"alt":"http:\/\/book.douban.com\/subject\/1220562\/","id":"1220562","publisher":"青岛出版社","isbn10":"7543632608","isbn13":"9787543632608","title":"满月之夜白鲸现","url":"http:\/\/api.douban.com\/v2\/book\/1220562","alt_title":"","author_intro":"","summary":"那一年，是听莫扎特、钓鲈鱼和家庭破裂的一年。说到家庭破裂，母亲怪自己当初没有找到好男人，父亲则认为当时是被狐狸精迷住了眼，失常的是母亲，但出问题的是父亲……。","price":"15.00元"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparsionDetail</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Test function B</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Test function C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test function D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.100.239:8088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/codes/only_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token 04e42a1f-fa8d-4706-8546-9790daddd9ee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"e435f1a6c2024c1a85f1d4cff0f919ea"}</t>
+  </si>
+  <si>
+    <t>{"name": "ljtest","status": "0","description": "描述","confScripts": [{"id": "id1","type": 1}],"triggerScripts": [{"scriptId": 1,"executeOrder": 1}],"condition": 0,"value" : "2016-01-21 11:11"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/triggerevents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"msg":"66","status":"success"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test function E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{"triggerEventId": "66","name": "触发事件名称","status": "1","description": "描述1","confScripts": [{"id": "id2","type": 2}],"triggerScripts": [{"scriptId": 1,"executeOrder": 1}],"condition": 0,"value": "2015-12-22 10:11"} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>{"msg":"","status":"success"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test function F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/triggerevents/66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test function F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Test function A</t>
   </si>
   <si>
-    <t>comparsionDetail</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>TestCase</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>iD</t>
+  </si>
+  <si>
+    <t>test_case</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>Test function B</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>{"rating":{"max":10,"numRaters":349,"average":"7.0","min":0},"subtitle":"","author":["[日] 片山恭一"],"pubdate":"2005-1","tags":[{"count":138,"name":"片山恭一","title":"片山恭一"},{"count":65,"name":"日本","title":"日本"},{"count":61,"name":"日本文学","title":"日本文学"},{"count":38,"name":"小说","title":"小说"},{"count":32,"name":"满月之夜白鲸现","title":"满月之夜白鲸现"},{"count":15,"name":"爱情","title":"爱情"},{"count":8,"name":"純愛","title":"純愛"},{"count":8,"name":"外国文学","title":"外国文学"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s1747553.jpg","binding":"平装","translator":["豫人"],"catalog":"\n      ","pages":"180","images":{"small":"http://img3.douban.com\/spic\/s1747553.jpg","large":"http://img3.douban.com\/lpic\/s1747553.jpg","medium":"http://img3.douban.com\/mpic\/s1747553.jpg"},"alt":"http:\/\/book.douban.com\/subject\/1220562\/","id":"1220562","publisher":"青岛出版社","isbn10":"7543632608","isbn13":"9787543632608","title":"满月之夜白鲸现","url":"http:\/\/api.douban.com\/v2\/book\/1220562","alt_title":"","author_intro":"","summary":"那一年，是听莫扎特、钓鲈鱼和家庭破裂的一年。说到家庭破裂，母亲怪自己当初没有找到好男人，父亲则认为当时是被狐狸精迷住了眼，失常的是母亲，但出问题的是父亲……。","price":"15.00元"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rating.numRaters
+    <t>Test function C</t>
+  </si>
+  <si>
+    <t>Test function D</t>
+  </si>
+  <si>
+    <t>Test function E</t>
+  </si>
+  <si>
+    <t>totalcase</t>
+  </si>
+  <si>
+    <t>failedcase</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>http://192.168.100.239:8088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/triggerevents/modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Test function G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.uyun.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/data/mobile/web/app/overview/list?userId=fe72a73e-f036-458b-8898-5e523c7ef145&amp;token=8d05cd1d-dba8-4a43-84a7-91c55db736ba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test function G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>baseline:{"id":"e435f1a6c2024c1a85f1d4cff0f919ea"} /r/n response.statusLine:HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>baseline:{"msg":"66","status":"success"} /r/n response.statusLine:HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>baseline:{"msg":"","status":"success"} /r/n response.statusLine:HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">books[alt=http://book.douban.com/subject/25830739/]
+Expected: a JSON object
+     but none found
+ ; books[alt=http://book.douban.com/subject/25801524/]
+Expected: a JSON object
+     but none found
+ ; books[alt=https://book.douban.com/subject/25830739/]
+Unexpected: a JSON object
+ ; books[alt=https://book.douban.com/subject/25801524/]
+Unexpected: a JSON object
+</t>
+  </si>
+  <si>
+    <t>{"rating":{"max":10,"numRaters":350,"average":"7.0","min":0},"subtitle":"","author":["[日] 片山恭一"],"pubdate":"2005-1","tags":[{"count":139,"name":"片山恭一","title":"片山恭一"},{"count":66,"name":"日本","title":"日本"},{"count":61,"name":"日本文学","title":"日本文学"},{"count":38,"name":"小说","title":"小说"},{"count":32,"name":"满月之夜白鲸现","title":"满月之夜白鲸现"},{"count":15,"name":"爱情","title":"爱情"},{"count":8,"name":"純愛","title":"純愛"},{"count":8,"name":"外国文学","title":"外国文学"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s1747553.jpg","binding":"平装","translator":["豫人"],"catalog":"\n      ","pages":"180","images":{"small":"http://img3.douban.com\/spic\/s1747553.jpg","large":"http://img3.douban.com\/lpic\/s1747553.jpg","medium":"http://img3.douban.com\/mpic\/s1747553.jpg"},"alt":"https:\/\/book.douban.com\/subject\/1220562\/","id":"1220562","publisher":"青岛出版社","isbn10":"7543632608","isbn13":"9787543632608","title":"满月之夜白鲸现","url":"http:\/\/api.douban.com\/v2\/book\/1220562","alt_title":"","author_intro":"","summary":"那一年，是听莫扎特、钓鲈鱼和家庭破裂的一年。说到家庭破裂，母亲怪自己当初没有找到好男人，父亲则认为当时是被狐狸精迷住了眼，失常的是母亲，但出问题的是父亲……。","price":"15.00元"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alt
+Expected: http://book.douban.com/subject/1220562/
+     got: https://book.douban.com/subject/1220562/
+ ; rating.numRaters
 Expected: 344
-     got: 349
+     got: 350
  ; tags[name=片山恭一].count
 Expected: 133
-     got: 138
+     got: 139
  ; tags[name=日本文学].count
 Expected: 60
      got: 61
  ; tags[name=日本].count
 Expected: 62
-     got: 65
+     got: 66
 </t>
   </si>
   <si>
-    <t>{"count":2,"start":0,"total":2,"books":[{"rating":{"max":10,"numRaters":23,"average":"7.4","min":0},"subtitle":"Pragmatic Functional Programming","author":["Richard Warburton"],"pubdate":"2014-4-7","tags":[{"count":25,"name":"Java","title":"Java"},{"count":17,"name":"Java8","title":"Java8"},{"count":15,"name":"lambda","title":"lambda"},{"count":5,"name":"FP","title":"FP"},{"count":4,"name":"编程语言","title":"编程语言"},{"count":4,"name":"英文版","title":"英文版"},{"count":4,"name":"计算机","title":"计算机"},{"count":3,"name":"程序设计","title":"程序设计"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s27245543.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"182","images":{"small":"http://img3.douban.com\/spic\/s27245543.jpg","large":"http://img3.douban.com\/lpic\/s27245543.jpg","medium":"http://img3.douban.com\/mpic\/s27245543.jpg"},"alt":"http:\/\/book.douban.com\/subject\/25801524\/","id":"25801524","publisher":"O'Reilly Media","isbn10":"1449370772","isbn13":"9781449370770","title":"Java 8 Lambdas","url":"http:\/\/api.douban.com\/v2\/book\/25801524","alt_title":"","author_intro":"Richard is an empirical technologist and solver of deep-dive technical problems. He has professionally worked on static analysis problems, verifying part of a compiler and developing advanced automated bug detection technology. More recently his career has been focussed on data analytics for high performance computing. He is a leader in the London Java Community, sits on their JCP Committee and organises the Adopt-a-JSR programs for Lambdas and Date and Time in Java 8. Richard is also a known conference speaker, having talked at JavaOne, DevoxxUK and JAX London. He obtained a PhD in Computer Science from The University of Warwick where his research focussed on compiler theory.","summary":"If you're an experienced Java programmer, Java 8 Lambdas shows you how to make use of your existing skills to adapt their thinking and your codebase to use lambda expressions properly. Starting with basic examples, this book is focused solely on Java 8 language changes and related API changes, so you don’t need to buy and read a 900 page book in order to brush up. Lambdas make a programmer's job easier, and this book will teach you how. Coverage includes introductory syntax for lambda expressions, method references that allow you to reuse existing named methods from your codebase, and the collection library in Java 8.","price":"USD 29.99"},{"rating":{"max":10,"numRaters":3,"average":"0.0","min":0},"subtitle":"Harnessing the Power Of Java 8 Lambda Expressions","author":["Venkat Subramaniam"],"pubdate":"2014-3-1","tags":[{"count":11,"name":"Java","title":"Java"},{"count":4,"name":"lambda","title":"lambda"},{"count":2,"name":"Functional","title":"Functional"},{"count":2,"name":"Java8","title":"Java8"},{"count":1,"name":"pragmatic","title":"pragmatic"},{"count":1,"name":"programming","title":"programming"},{"count":1,"name":"有电子版","title":"有电子版"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s27241342.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"160","images":{"small":"http://img3.douban.com\/spic\/s27241342.jpg","large":"http://img3.douban.com\/lpic\/s27241342.jpg","medium":"http://img3.douban.com\/mpic\/s27241342.jpg"},"alt":"http:\/\/book.douban.com\/subject\/25830739\/","id":"25830739","publisher":"Pragmatic Bookshelf","isbn10":"1937785467","isbn13":"9781937785468","title":"Functional Programming in Java","url":"http:\/\/api.douban.com\/v2\/book\/25830739","alt_title":"","author_intro":"","summary":"","price":"USD 33.00"}]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">books[alt=http://book.douban.com/subject/25830739/].tags[name=Java].count
-Expected: 10
-     got: 11
- ; books[alt=http://book.douban.com/subject/25801524/].rating.average
-Expected: 7.3
-     got: 7.4
- ; books[alt=http://book.douban.com/subject/25801524/].rating.numRaters
-Expected: 14
-     got: 23
- ; books[alt=http://book.douban.com/subject/25801524/].tags[name=Java].count
-Expected: 24
-     got: 25
- ; books[alt=http://book.douban.com/subject/25801524/].tags[name=lambda].count
-Expected: 11
-     got: 15
- ; books[alt=http://book.douban.com/subject/25801524/].tags[name=Java8].count
-Expected: 12
-     got: 17
- ; books[alt=http://book.douban.com/subject/25801524/].tags[name=编程语言].count
-Expected: 3
-     got: 4
- ; books[alt=http://book.douban.com/subject/25801524/].tags[name=FP].count
-Expected: 3
-     got: 5
-</t>
-  </si>
-  <si>
-    <t>totalcase</t>
-  </si>
-  <si>
-    <t>failedcase</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>iD</t>
-  </si>
-  <si>
-    <t>test_case</t>
-  </si>
-  <si>
-    <t>2016-03-23 18:57:38</t>
-  </si>
-  <si>
-    <t>2016-03-23 18:57:41</t>
-  </si>
-  <si>
-    <t>{"rating":{"max":10,"numRaters":349,"average":"7.0","min":0},"subtitle":"","author":["[日] 片山恭一"],"pubdate":"2005-1","tags":[{"count":138,"name":"片山恭一","title":"片山恭一"},{"count":65,"name":"日本","title":"日本"},{"count":61,"name":"日本文学","title":"日本文学"},{"count":38,"name":"小说","title":"小说"},{"count":32,"name":"满月之夜白鲸现","title":"满月之夜白鲸现"},{"count":15,"name":"爱情","title":"爱情"},{"count":8,"name":"純愛","title":"純愛"},{"count":8,"name":"外国文学","title":"外国文学"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s1747553.jpg","binding":"平装","translator":["豫人"],"catalog":"\n      ","pages":"180","images":{"small":"http://img3.douban.com\/spic\/s1747553.jpg","large":"http://img3.douban.com\/lpic\/s1747553.jpg","medium":"http://img3.douban.com\/mpic\/s1747553.jpg"},"alt":"http:\/\/book.douban.com\/subject\/1220562\/","id":"1220562","publisher":"青岛出版社","isbn10":"7543632608","isbn13":"9787543632608","title":"满月之夜白鲸现","url":"http:\/\/api.douban.com\/v2\/book\/1220562","alt_title":"","author_intro":"","summary":"那一年，是听莫扎特、钓鲈鱼和家庭破裂的一年。说到家庭破裂，母亲怪自己当初没有找到好男人，父亲则认为当时是被狐狸精迷住了眼，失常的是母亲，但出问题的是父亲……。","price":"15.00元"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>2016-03-23 18:58:46</t>
-  </si>
-  <si>
-    <t>2016-03-23 18:58:51</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>2016-03-23 18:59:43</t>
-  </si>
-  <si>
-    <t>2016-03-23 18:59:47</t>
+    <t>{"count":2,"start":0,"total":2,"books":[{"rating":{"max":10,"numRaters":23,"average":"7.4","min":0},"subtitle":"Pragmatic Functional Programming","author":["Richard Warburton"],"pubdate":"2014-4-7","tags":[{"count":25,"name":"Java","title":"Java"},{"count":18,"name":"Java8","title":"Java8"},{"count":15,"name":"lambda","title":"lambda"},{"count":5,"name":"FP","title":"FP"},{"count":4,"name":"编程语言","title":"编程语言"},{"count":4,"name":"英文版","title":"英文版"},{"count":4,"name":"计算机","title":"计算机"},{"count":3,"name":"程序设计","title":"程序设计"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s27245543.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"182","images":{"small":"http://img3.douban.com\/spic\/s27245543.jpg","large":"http://img3.douban.com\/lpic\/s27245543.jpg","medium":"http://img3.douban.com\/mpic\/s27245543.jpg"},"alt":"https:\/\/book.douban.com\/subject\/25801524\/","id":"25801524","publisher":"O'Reilly Media","isbn10":"1449370772","isbn13":"9781449370770","title":"Java 8 Lambdas","url":"http:\/\/api.douban.com\/v2\/book\/25801524","alt_title":"","author_intro":"Richard is an empirical technologist and solver of deep-dive technical problems. He has professionally worked on static analysis problems, verifying part of a compiler and developing advanced automated bug detection technology. More recently his career has been focussed on data analytics for high performance computing. He is a leader in the London Java Community, sits on their JCP Committee and organises the Adopt-a-JSR programs for Lambdas and Date and Time in Java 8. Richard is also a known conference speaker, having talked at JavaOne, DevoxxUK and JAX London. He obtained a PhD in Computer Science from The University of Warwick where his research focussed on compiler theory.","summary":"If you're an experienced Java programmer, Java 8 Lambdas shows you how to make use of your existing skills to adapt their thinking and your codebase to use lambda expressions properly. Starting with basic examples, this book is focused solely on Java 8 language changes and related API changes, so you don’t need to buy and read a 900 page book in order to brush up. Lambdas make a programmer's job easier, and this book will teach you how. Coverage includes introductory syntax for lambda expressions, method references that allow you to reuse existing named methods from your codebase, and the collection library in Java 8.","price":"USD 29.99"},{"rating":{"max":10,"numRaters":3,"average":"0.0","min":0},"subtitle":"Harnessing the Power Of Java 8 Lambda Expressions","author":["Venkat Subramaniam"],"pubdate":"2014-3-1","tags":[{"count":11,"name":"Java","title":"Java"},{"count":4,"name":"lambda","title":"lambda"},{"count":2,"name":"Functional","title":"Functional"},{"count":2,"name":"Java8","title":"Java8"},{"count":1,"name":"pragmatic","title":"pragmatic"},{"count":1,"name":"programming","title":"programming"},{"count":1,"name":"有电子版","title":"有电子版"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s27241342.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"160","images":{"small":"http://img3.douban.com\/spic\/s27241342.jpg","large":"http://img3.douban.com\/lpic\/s27241342.jpg","medium":"http://img3.douban.com\/mpic\/s27241342.jpg"},"alt":"https:\/\/book.douban.com\/subject\/25830739\/","id":"25830739","publisher":"Pragmatic Bookshelf","isbn10":"1937785467","isbn13":"9781937785468","title":"Functional Programming in Java","url":"http:\/\/api.douban.com\/v2\/book\/25830739","alt_title":"","author_intro":"","summary":"","price":"USD 33.00"}]}</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2016-04-16 16:10:48</t>
+  </si>
+  <si>
+    <t>2016-04-16 16:10:52</t>
+  </si>
+  <si>
+    <t>cassandra:SELECT page_info_json FROM page where uuid=''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-04-17 14:55:54</t>
+  </si>
+  <si>
+    <t>2016-04-17 14:56:02</t>
   </si>
 </sst>
 </file>
@@ -637,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -648,7 +771,7 @@
     <col min="2" max="2" customWidth="true" width="18.625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="38.125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="24.625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="4.625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.5" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="35.625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="48.375" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="17.625" collapsed="true"/>
@@ -717,7 +840,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -730,6 +853,139 @@
       </c>
       <c r="I3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -745,15 +1001,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="48.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -775,7 +1032,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -787,6 +1044,61 @@
       </c>
       <c r="C3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -821,24 +1133,57 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -867,13 +1212,57 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -891,63 +1280,96 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/RestfulAPITest/Http_Request_workbook_Data.xlsx
+++ b/RestfulAPITest/Http_Request_workbook_Data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="95">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,36 @@
   </si>
   <si>
     <t>2016-04-17 14:56:02</t>
+  </si>
+  <si>
+    <t>{"rating":{"max":10,"numRaters":351,"average":"7.0","min":0},"subtitle":"","author":["[日] 片山恭一"],"pubdate":"2005-1","tags":[{"count":139,"name":"片山恭一","title":"片山恭一"},{"count":66,"name":"日本","title":"日本"},{"count":61,"name":"日本文学","title":"日本文学"},{"count":38,"name":"小说","title":"小说"},{"count":32,"name":"满月之夜白鲸现","title":"满月之夜白鲸现"},{"count":15,"name":"爱情","title":"爱情"},{"count":8,"name":"純愛","title":"純愛"},{"count":8,"name":"外国文学","title":"外国文学"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s1747553.jpg","binding":"平装","translator":["豫人"],"catalog":"\n      ","pages":"180","images":{"small":"http://img3.douban.com\/spic\/s1747553.jpg","large":"http://img3.douban.com\/lpic\/s1747553.jpg","medium":"http://img3.douban.com\/mpic\/s1747553.jpg"},"alt":"https:\/\/book.douban.com\/subject\/1220562\/","id":"1220562","publisher":"青岛出版社","isbn10":"7543632608","isbn13":"9787543632608","title":"满月之夜白鲸现","url":"http:\/\/api.douban.com\/v2\/book\/1220562","alt_title":"","author_intro":"","summary":"那一年，是听莫扎特、钓鲈鱼和家庭破裂的一年。说到家庭破裂，母亲怪自己当初没有找到好男人，父亲则认为当时是被狐狸精迷住了眼，失常的是母亲，但出问题的是父亲……。","price":"15.00元"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alt
+Expected: http://book.douban.com/subject/1220562/
+     got: https://book.douban.com/subject/1220562/
+ ; rating.numRaters
+Expected: 344
+     got: 351
+ ; tags[name=片山恭一].count
+Expected: 133
+     got: 139
+ ; tags[name=日本文学].count
+Expected: 60
+     got: 61
+ ; tags[name=日本].count
+Expected: 62
+     got: 66
+</t>
+  </si>
+  <si>
+    <t>{"count":2,"start":0,"total":2,"books":[{"rating":{"max":10,"numRaters":24,"average":"7.4","min":0},"subtitle":"Pragmatic Functional Programming","author":["Richard Warburton"],"pubdate":"2014-4-7","tags":[{"count":25,"name":"Java","title":"Java"},{"count":18,"name":"Java8","title":"Java8"},{"count":15,"name":"lambda","title":"lambda"},{"count":5,"name":"FP","title":"FP"},{"count":4,"name":"编程语言","title":"编程语言"},{"count":4,"name":"英文版","title":"英文版"},{"count":4,"name":"计算机","title":"计算机"},{"count":3,"name":"程序设计","title":"程序设计"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s27245543.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"182","images":{"small":"http://img3.douban.com\/spic\/s27245543.jpg","large":"http://img3.douban.com\/lpic\/s27245543.jpg","medium":"http://img3.douban.com\/mpic\/s27245543.jpg"},"alt":"https:\/\/book.douban.com\/subject\/25801524\/","id":"25801524","publisher":"O'Reilly Media","isbn10":"1449370772","isbn13":"9781449370770","title":"Java 8 Lambdas","url":"http:\/\/api.douban.com\/v2\/book\/25801524","alt_title":"","author_intro":"Richard is an empirical technologist and solver of deep-dive technical problems. He has professionally worked on static analysis problems, verifying part of a compiler and developing advanced automated bug detection technology. More recently his career has been focussed on data analytics for high performance computing. He is a leader in the London Java Community, sits on their JCP Committee and organises the Adopt-a-JSR programs for Lambdas and Date and Time in Java 8. Richard is also a known conference speaker, having talked at JavaOne, DevoxxUK and JAX London. He obtained a PhD in Computer Science from The University of Warwick where his research focussed on compiler theory.","summary":"If you're an experienced Java programmer, Java 8 Lambdas shows you how to make use of your existing skills to adapt their thinking and your codebase to use lambda expressions properly. Starting with basic examples, this book is focused solely on Java 8 language changes and related API changes, so you don’t need to buy and read a 900 page book in order to brush up. Lambdas make a programmer's job easier, and this book will teach you how. Coverage includes introductory syntax for lambda expressions, method references that allow you to reuse existing named methods from your codebase, and the collection library in Java 8.","price":"USD 29.99"},{"rating":{"max":10,"numRaters":3,"average":"0.0","min":0},"subtitle":"Harnessing the Power Of Java 8 Lambda Expressions","author":["Venkat Subramaniam"],"pubdate":"2014-3-1","tags":[{"count":11,"name":"Java","title":"Java"},{"count":4,"name":"lambda","title":"lambda"},{"count":2,"name":"Functional","title":"Functional"},{"count":2,"name":"Java8","title":"Java8"},{"count":1,"name":"pragmatic","title":"pragmatic"},{"count":1,"name":"programming","title":"programming"},{"count":1,"name":"有电子版","title":"有电子版"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s27241342.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"160","images":{"small":"http://img3.douban.com\/spic\/s27241342.jpg","large":"http://img3.douban.com\/lpic\/s27241342.jpg","medium":"http://img3.douban.com\/mpic\/s27241342.jpg"},"alt":"https:\/\/book.douban.com\/subject\/25830739\/","id":"25830739","publisher":"Pragmatic Bookshelf","isbn10":"1937785467","isbn13":"9781937785468","title":"Functional Programming in Java","url":"http:\/\/api.douban.com\/v2\/book\/25830739","alt_title":"","author_intro":"","summary":"","price":"USD 33.00"}]}</t>
+  </si>
+  <si>
+    <t>2016-05-06 23:08:03</t>
+  </si>
+  <si>
+    <t>2016-05-06 23:08:13</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1163,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -1144,7 +1174,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1212,7 +1242,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -1366,10 +1396,10 @@
         <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/RestfulAPITest/Http_Request_workbook_Data.xlsx
+++ b/RestfulAPITest/Http_Request_workbook_Data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="187">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,333 +78,631 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test function A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test function A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Test function B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>application/json;charset=UTF-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json;charset=UTF-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text/html,application/xhtml+xml,application/xml;q=0.9,*/*;q=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text/html,application/xhtml+xml,application/xml;q=0.9,*/*;q=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparsionDetail</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Test function B</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test function A</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>iD</t>
+  </si>
+  <si>
+    <t>test_case</t>
+  </si>
+  <si>
+    <t>totalcase</t>
+  </si>
+  <si>
+    <t>failedcase</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>{"rating":{"max":10,"numRaters":351,"average":"7.0","min":0},"subtitle":"","author":["[日] 片山恭一"],"pubdate":"2005-1","tags":[{"count":139,"name":"片山恭一","title":"片山恭一"},{"count":66,"name":"日本","title":"日本"},{"count":61,"name":"日本文学","title":"日本文学"},{"count":38,"name":"小说","title":"小说"},{"count":32,"name":"满月之夜白鲸现","title":"满月之夜白鲸现"},{"count":15,"name":"爱情","title":"爱情"},{"count":8,"name":"純愛","title":"純愛"},{"count":8,"name":"外国文学","title":"外国文学"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s1747553.jpg","binding":"平装","translator":["豫人"],"catalog":"\n      ","pages":"180","images":{"small":"http://img3.douban.com\/spic\/s1747553.jpg","large":"http://img3.douban.com\/lpic\/s1747553.jpg","medium":"http://img3.douban.com\/mpic\/s1747553.jpg"},"alt":"https:\/\/book.douban.com\/subject\/1220562\/","id":"1220562","publisher":"青岛出版社","isbn10":"7543632608","isbn13":"9787543632608","title":"满月之夜白鲸现","url":"http:\/\/api.douban.com\/v2\/book\/1220562","alt_title":"","author_intro":"","summary":"那一年，是听莫扎特、钓鲈鱼和家庭破裂的一年。说到家庭破裂，母亲怪自己当初没有找到好男人，父亲则认为当时是被狐狸精迷住了眼，失常的是母亲，但出问题的是父亲……。","price":"15.00元"}</t>
+  </si>
+  <si>
+    <t>http://api.douban.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/v2/book/1220562</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test function A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test function A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Test function B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>application/json;charset=UTF-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json;charset=UTF-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text/html,application/xhtml+xml,application/xml;q=0.9,*/*;q=0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text/html,application/xhtml+xml,application/xml;q=0.9,*/*;q=0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"count":2,"start":0,"total":2,"books":[{"rating":{"max":10,"numRaters":14,"average":"7.3","min":0},"subtitle":"Pragmatic Functional Programming","author":["Richard Warburton"],"pubdate":"2014-4-7","tags":[{"count":24,"name":"Java","title":"Java"},{"count":12,"name":"Java8","title":"Java8"},{"count":11,"name":"lambda","title":"lambda"},{"count":4,"name":"计算机","title":"计算机"},{"count":4,"name":"英文版","title":"英文版"},{"count":3,"name":"编程语言","title":"编程语言"},{"count":3,"name":"程序设计","title":"程序设计"},{"count":3,"name":"FP","title":"FP"}],"origin_title":"","image":"http:\/\/img3.douban.com\/mpic\/s27245543.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"182","images":{"small":"http:\/\/img3.douban.com\/spic\/s27245543.jpg","large":"http:\/\/img3.douban.com\/lpic\/s27245543.jpg","medium":"http:\/\/img3.douban.com\/mpic\/s27245543.jpg"},"alt":"http:\/\/book.douban.com\/subject\/25801524\/","id":"25801524","publisher":"O'Reilly Media","isbn10":"1449370772","isbn13":"9781449370770","title":"Java 8 Lambdas","url":"http:\/\/api.douban.com\/v2\/book\/25801524","alt_title":"","author_intro":"Richard is an empirical technologist and solver of deep-dive technical problems. He has professionally worked on static analysis problems, verifying part of a compiler and developing advanced automated bug detection technology. More recently his career has been focussed on data analytics for high performance computing. He is a leader in the London Java Community, sits on their JCP Committee and organises the Adopt-a-JSR programs for Lambdas and Date and Time in Java 8. Richard is also a known conference speaker, having talked at JavaOne, DevoxxUK and JAX London. He obtained a PhD in Computer Science from The University of Warwick where his research focussed on compiler theory.","summary":"If you're an experienced Java programmer, Java 8 Lambdas shows you how to make use of your existing skills to adapt their thinking and your codebase to use lambda expressions properly. Starting with basic examples, this book is focused solely on Java 8 language changes and related API changes, so you don’t need to buy and read a 900 page book in order to brush up. Lambdas make a programmer's job easier, and this book will teach you how. Coverage includes introductory syntax for lambda expressions, method references that allow you to reuse existing named methods from your codebase, and the collection library in Java 8.","price":"USD 29.99"},{"rating":{"max":10,"numRaters":3,"average":"0.0","min":0},"subtitle":"Harnessing the Power Of Java 8 Lambda Expressions","author":["Venkat Subramaniam"],"pubdate":"2014-3-1","tags":[{"count":10,"name":"Java","title":"Java"},{"count":4,"name":"lambda","title":"lambda"},{"count":2,"name":"Functional","title":"Functional"},{"count":2,"name":"Java8","title":"Java8"},{"count":1,"name":"pragmatic","title":"pragmatic"},{"count":1,"name":"programming","title":"programming"},{"count":1,"name":"有电子版","title":"有电子版"}],"origin_title":"","image":"http:\/\/img3.douban.com\/mpic\/s27241342.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"160","images":{"small":"http:\/\/img3.douban.com\/spic\/s27241342.jpg","large":"http:\/\/img3.douban.com\/lpic\/s27241342.jpg","medium":"http:\/\/img3.douban.com\/mpic\/s27241342.jpg"},"alt":"http:\/\/book.douban.com\/subject\/25830739\/","id":"25830739","publisher":"Pragmatic Bookshelf","isbn10":"1937785467","isbn13":"9781937785468","title":"Functional Programming in Java","url":"http:\/\/api.douban.com\/v2\/book\/25830739","alt_title":"","author_intro":"","summary":"","price":"USD 33.00"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/v2/book/search?q=java8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"rating":{"max":10,"numRaters":344,"average":"7.0","min":0},"subtitle":"","author":["[日] 片山恭一"],"pubdate":"2005-1","tags":[{"count":133,"name":"片山恭一","title":"片山恭一"},{"count":62,"name":"日本","title":"日本"},{"count":60,"name":"日本文学","title":"日本文学"},{"count":38,"name":"小说","title":"小说"},{"count":32,"name":"满月之夜白鲸现","title":"满月之夜白鲸现"},{"count":15,"name":"爱情","title":"爱情"},{"count":8,"name":"純愛","title":"純愛"},{"count":8,"name":"外国文学","title":"外国文学"}],"origin_title":"","image":"http:\/\/img3.douban.com\/mpic\/s1747553.jpg","binding":"平装","translator":["豫人"],"catalog":"\n ","pages":"180","images":{"small":"http:\/\/img3.douban.com\/spic\/s1747553.jpg","large":"http:\/\/img3.douban.com\/lpic\/s1747553.jpg","medium":"http:\/\/img3.douban.com\/mpic\/s1747553.jpg"},"alt":"http:\/\/book.douban.com\/subject\/1220562\/","id":"1220562","publisher":"青岛出版社","isbn10":"7543632608","isbn13":"9787543632608","title":"满月之夜白鲸现","url":"http:\/\/api.douban.com\/v2\/book\/1220562","alt_title":"","author_intro":"","summary":"那一年，是听莫扎特、钓鲈鱼和家庭破裂的一年。说到家庭破裂，母亲怪自己当初没有找到好男人，父亲则认为当时是被狐狸精迷住了眼，失常的是母亲，但出问题的是父亲……。","price":"15.00元"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comparsionDetail</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>TestCase</t>
-  </si>
-  <si>
-    <t>Test function B</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>{"rating":{"max":10,"numRaters":351,"average":"7.0","min":0},"subtitle":"","author":["[日] 片山恭一"],"pubdate":"2005-1","tags":[{"count":139,"name":"片山恭一","title":"片山恭一"},{"count":66,"name":"日本","title":"日本"},{"count":61,"name":"日本文学","title":"日本文学"},{"count":38,"name":"小说","title":"小说"},{"count":32,"name":"满月之夜白鲸现","title":"满月之夜白鲸现"},{"count":15,"name":"爱情","title":"爱情"},{"count":8,"name":"純愛","title":"純愛"},{"count":8,"name":"外国文学","title":"外国文学"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s1747553.jpg","binding":"平装","translator":["豫人"],"catalog":"\n      ","pages":"180","images":{"small":"http://img3.douban.com\/spic\/s1747553.jpg","large":"http://img3.douban.com\/lpic\/s1747553.jpg","medium":"http://img3.douban.com\/mpic\/s1747553.jpg"},"alt":"https:\/\/book.douban.com\/subject\/1220562\/","id":"1220562","publisher":"青岛出版社","isbn10":"7543632608","isbn13":"9787543632608","title":"满月之夜白鲸现","url":"http:\/\/api.douban.com\/v2\/book\/1220562","alt_title":"","author_intro":"","summary":"那一年，是听莫扎特、钓鲈鱼和家庭破裂的一年。说到家庭破裂，母亲怪自己当初没有找到好男人，父亲则认为当时是被狐狸精迷住了眼，失常的是母亲，但出问题的是父亲……。","price":"15.00元"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"count":2,"start":0,"total":2,"books":[{"rating":{"max":10,"numRaters":23,"average":"7.4","min":0},"subtitle":"Pragmatic Functional Programming","author":["Richard Warburton"],"pubdate":"2014-4-7","tags":[{"count":25,"name":"Java","title":"Java"},{"count":18,"name":"Java8","title":"Java8"},{"count":15,"name":"lambda","title":"lambda"},{"count":5,"name":"FP","title":"FP"},{"count":4,"name":"编程语言","title":"编程语言"},{"count":4,"name":"英文版","title":"英文版"},{"count":4,"name":"计算机","title":"计算机"},{"count":3,"name":"程序设计","title":"程序设计"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s27245543.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"182","images":{"small":"http://img3.douban.com\/spic\/s27245543.jpg","large":"http://img3.douban.com\/lpic\/s27245543.jpg","medium":"http://img3.douban.com\/mpic\/s27245543.jpg"},"alt":"https:\/\/book.douban.com\/subject\/25801524\/","id":"25801524","publisher":"O'Reilly Media","isbn10":"1449370772","isbn13":"9781449370770","title":"Java 8 Lambdas","url":"http:\/\/api.douban.com\/v2\/book\/25801524","alt_title":"","author_intro":"Richard is an empirical technologist and solver of deep-dive technical problems. He has professionally worked on static analysis problems, verifying part of a compiler and developing advanced automated bug detection technology. More recently his career has been focussed on data analytics for high performance computing. He is a leader in the London Java Community, sits on their JCP Committee and organises the Adopt-a-JSR programs for Lambdas and Date and Time in Java 8. Richard is also a known conference speaker, having talked at JavaOne, DevoxxUK and JAX London. He obtained a PhD in Computer Science from The University of Warwick where his research focussed on compiler theory.","summary":"If you're an experienced Java programmer, Java 8 Lambdas shows you how to make use of your existing skills to adapt their thinking and your codebase to use lambda expressions properly. Starting with basic examples, this book is focused solely on Java 8 language changes and related API changes, so you don’t need to buy and read a 900 page book in order to brush up. Lambdas make a programmer's job easier, and this book will teach you how. Coverage includes introductory syntax for lambda expressions, method references that allow you to reuse existing named methods from your codebase, and the collection library in Java 8.","price":"USD 29.99"},{"rating":{"max":10,"numRaters":3,"average":"0.0","min":0},"subtitle":"Harnessing the Power Of Java 8 Lambda Expressions","author":["Venkat Subramaniam"],"pubdate":"2014-3-1","tags":[{"count":11,"name":"Java","title":"Java"},{"count":4,"name":"lambda","title":"lambda"},{"count":2,"name":"Functional","title":"Functional"},{"count":2,"name":"Java8","title":"Java8"},{"count":1,"name":"pragmatic","title":"pragmatic"},{"count":1,"name":"programming","title":"programming"},{"count":1,"name":"有电子版","title":"有电子版"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s27241342.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"160","images":{"small":"http://img3.douban.com\/spic\/s27241342.jpg","large":"http://img3.douban.com\/lpic\/s27241342.jpg","medium":"http://img3.douban.com\/mpic\/s27241342.jpg"},"alt":"https:\/\/book.douban.com\/subject\/25830739\/","id":"25830739","publisher":"Pragmatic Bookshelf","isbn10":"1937785467","isbn13":"9781937785468","title":"Functional Programming in Java","url":"http:\/\/api.douban.com\/v2\/book\/25830739","alt_title":"","author_intro":"","summary":"","price":"USD 33.00"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>{"count":2,"start":0,"total":2,"books":[{"rating":{"max":10,"numRaters":23,"average":"7.4","min":0},"subtitle":"Pragmatic Functional Programming","author":["Richard Warburton"],"pubdate":"2014-4-7","tags":[{"count":25,"name":"Java","title":"Java"},{"count":18,"name":"Java8","title":"Java8"},{"count":15,"name":"lambda","title":"lambda"},{"count":5,"name":"FP","title":"FP"},{"count":4,"name":"编程语言","title":"编程语言"},{"count":4,"name":"英文版","title":"英文版"},{"count":4,"name":"计算机","title":"计算机"},{"count":3,"name":"程序设计","title":"程序设计"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s27245543.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"182","images":{"small":"http://img3.douban.com\/spic\/s27245543.jpg","large":"http://img3.douban.com\/lpic\/s27245543.jpg","medium":"http://img3.douban.com\/mpic\/s27245543.jpg"},"alt":"https:\/\/book.douban.com\/subject\/25801524\/","id":"25801524","publisher":"O'Reilly Media","isbn10":"1449370772","isbn13":"9781449370770","title":"Java 8 Lambdas","url":"http:\/\/api.douban.com\/v2\/book\/25801524","alt_title":"","author_intro":"Richard is an empirical technologist and solver of deep-dive technical problems. He has professionally worked on static analysis problems, verifying part of a compiler and developing advanced automated bug detection technology. More recently his career has been focussed on data analytics for high performance computing. He is a leader in the London Java Community, sits on their JCP Committee and organises the Adopt-a-JSR programs for Lambdas and Date and Time in Java 8. Richard is also a known conference speaker, having talked at JavaOne, DevoxxUK and JAX London. He obtained a PhD in Computer Science from The University of Warwick where his research focussed on compiler theory.","summary":"If you're an experienced Java programmer, Java 8 Lambdas shows you how to make use of your existing skills to adapt their thinking and your codebase to use lambda expressions properly. Starting with basic examples, this book is focused solely on Java 8 language changes and related API changes, so you don’t need to buy and read a 900 page book in order to brush up. Lambdas make a programmer's job easier, and this book will teach you how. Coverage includes introductory syntax for lambda expressions, method references that allow you to reuse existing named methods from your codebase, and the collection library in Java 8.","price":"USD 29.99"},{"rating":{"max":10,"numRaters":3,"average":"0.0","min":0},"subtitle":"Harnessing the Power Of Java 8 Lambda Expressions","author":["Venkat Subramaniam"],"pubdate":"2014-3-1","tags":[{"count":11,"name":"Java","title":"Java"},{"count":4,"name":"lambda","title":"lambda"},{"count":2,"name":"Functional","title":"Functional"},{"count":2,"name":"Java8","title":"Java8"},{"count":1,"name":"pragmatic","title":"pragmatic"},{"count":1,"name":"programming","title":"programming"},{"count":1,"name":"有电子版","title":"有电子版"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s27241342.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"160","images":{"small":"http://img3.douban.com\/spic\/s27241342.jpg","large":"http://img3.douban.com\/lpic\/s27241342.jpg","medium":"http://img3.douban.com\/mpic\/s27241342.jpg"},"alt":"https:\/\/book.douban.com\/subject\/25830739\/","id":"25830739","publisher":"Pragmatic Bookshelf","isbn10":"1937785467","isbn13":"9781937785468","title":"Functional Programming in Java","url":"http:\/\/api.douban.com\/v2\/book\/25830739","alt_title":"","author_intro":"","summary":"","price":"USD 33.00"}]}</t>
+  </si>
+  <si>
+    <t>http://10.1.50.225:7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/boltdog/api/v1/res/resource/query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test function C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test function D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>/boltdog/api/v1/res/resource-type/query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>[{"className":"中间件","id":1,"name":"tomcat"},{"className":"中间件","id":2,"name":"apache"}]</t>
+  </si>
+  <si>
+    <t>Test function D</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>mysql:SELECT class_name className,id,name from res_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+Expected: 1
+     got: 1
+</t>
+  </si>
+  <si>
+    <t>2016-05-09 13:25:05</t>
+  </si>
+  <si>
+    <t>2016-05-09 13:25:09</t>
+  </si>
+  <si>
+    <t>yaml:mysql_test2.yml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":[{"createTime":1461572468000,"defTags":"","id":1,"modifyTime":1461572468000,"name":"tomcat:8080","resourceType":{"className":"中间件","id":1,"name":"tomcat"},"runDuration":0,"runStatus":1,"serIp":"","sysTags":""},{"createTime":1461670796000,"defTags":"","id":62,"modifyTime":1461670727000,"name":"tomcat_8081","resourceType":{"className":"中间件","id":1,"name":"tomcat"},"runDuration":1000,"runStatus":0,"serIp":"127.0.0.1","sysTags":""},{"createTime":1461671049000,"defTags":"aa","id":86,"modifyTime":1461670980000,"name":"tomcat_8080","resourceType":{"className":"中间件","id":1,"name":"tomcat"},"runDuration":1000,"runStatus":1,"serIp":"127.0.0.1","sysTags":""},{"createTime":1461741827000,"defTags":"ddss","id":99,"modifyTime":1461741755000,"name":"tomcat_8080","resourceType":{"className":"中间件","id":1,"name":"tomcat"},"runDuration":1000,"runStatus":1,"serIp":"127.0.0.1","sysTags":"tomcat,6.0"},{"createTime":1461742013000,"defTags":"","id":100,"modifyTime":1461741941000,"name":"tomcat_8080","resourceType":{"className":"中间件","id":1,"name":"tomcat"},"runDuration":1000,"runStatus":1,"serIp":"127.0.0.1","sysTags":"tomcat,6.0"}],"total":5}</t>
+  </si>
+  <si>
     <t>Test function C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test function D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.100.239:8088</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/codes/only_flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token 04e42a1f-fa8d-4706-8546-9790daddd9ee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"e435f1a6c2024c1a85f1d4cff0f919ea"}</t>
-  </si>
-  <si>
-    <t>{"name": "ljtest","status": "0","description": "描述","confScripts": [{"id": "id1","type": 1}],"triggerScripts": [{"scriptId": 1,"executeOrder": 1}],"condition": 0,"value" : "2016-01-21 11:11"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/triggerevents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"msg":"66","status":"success"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test function E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{"triggerEventId": "66","name": "触发事件名称","status": "1","description": "描述1","confScripts": [{"id": "id2","type": 2}],"triggerScripts": [{"scriptId": 1,"executeOrder": 1}],"condition": 0,"value": "2015-12-22 10:11"} </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>{"msg":"","status":"success"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test function F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/triggerevents/66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test function F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test function A</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>iD</t>
-  </si>
-  <si>
-    <t>test_case</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Test function C</t>
-  </si>
-  <si>
-    <t>Test function D</t>
-  </si>
-  <si>
-    <t>Test function E</t>
-  </si>
-  <si>
-    <t>totalcase</t>
-  </si>
-  <si>
-    <t>failedcase</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>http://192.168.100.239:8088</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/triggerevents/modify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Test function G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.uyun.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/data/mobile/web/app/overview/list?userId=fe72a73e-f036-458b-8898-5e523c7ef145&amp;token=8d05cd1d-dba8-4a43-84a7-91c55db736ba</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test function G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 401 Unauthorized</t>
-  </si>
-  <si>
-    <t>baseline:{"id":"e435f1a6c2024c1a85f1d4cff0f919ea"} /r/n response.statusLine:HTTP/1.1 401 Unauthorized</t>
-  </si>
-  <si>
-    <t>baseline:{"msg":"66","status":"success"} /r/n response.statusLine:HTTP/1.1 401 Unauthorized</t>
-  </si>
-  <si>
-    <t>baseline:{"msg":"","status":"success"} /r/n response.statusLine:HTTP/1.1 401 Unauthorized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">books[alt=http://book.douban.com/subject/25830739/]
+  </si>
+  <si>
+    <t xml:space="preserve">
+Unexpected: data
+ ; 
+Unexpected: total
+</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2016-05-09 13:30:46</t>
+  </si>
+  <si>
+    <t>2016-05-09 13:30:50</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:14:32</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:14:36</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:15:32</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:15:36</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:16:56</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Unexpected: data
+</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:18:35</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:18:38</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:21:02</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:21:05</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Problem to assert Response and baseline messages: Expected a ',' or '}' at character 188</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:25:18</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:25:23</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:27:08</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:27:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data[createTime=1461572468000]
 Expected: a JSON object
      but none found
- ; books[alt=http://book.douban.com/subject/25801524/]
+ ; data[createTime=1461742013000]
 Expected: a JSON object
      but none found
- ; books[alt=https://book.douban.com/subject/25830739/]
+ ; data[createTime=1461670796000]
+Expected: a JSON object
+     but none found
+ ; data[createTime=1461671049000]
+Expected: a JSON object
+     but none found
+ ; data[createTime=1461741827000]
+Expected: a JSON object
+     but none found
+ ; data[createTime=1461742013000]
 Unexpected: a JSON object
- ; books[alt=https://book.douban.com/subject/25801524/]
+ ; data[createTime=1461572468000]
+Unexpected: a JSON object
+ ; data[createTime=1461741827000]
+Unexpected: a JSON object
+ ; data[createTime=1461670796000]
+Unexpected: a JSON object
+ ; data[createTime=1461671049000]
 Unexpected: a JSON object
 </t>
   </si>
   <si>
-    <t>{"rating":{"max":10,"numRaters":350,"average":"7.0","min":0},"subtitle":"","author":["[日] 片山恭一"],"pubdate":"2005-1","tags":[{"count":139,"name":"片山恭一","title":"片山恭一"},{"count":66,"name":"日本","title":"日本"},{"count":61,"name":"日本文学","title":"日本文学"},{"count":38,"name":"小说","title":"小说"},{"count":32,"name":"满月之夜白鲸现","title":"满月之夜白鲸现"},{"count":15,"name":"爱情","title":"爱情"},{"count":8,"name":"純愛","title":"純愛"},{"count":8,"name":"外国文学","title":"外国文学"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s1747553.jpg","binding":"平装","translator":["豫人"],"catalog":"\n      ","pages":"180","images":{"small":"http://img3.douban.com\/spic\/s1747553.jpg","large":"http://img3.douban.com\/lpic\/s1747553.jpg","medium":"http://img3.douban.com\/mpic\/s1747553.jpg"},"alt":"https:\/\/book.douban.com\/subject\/1220562\/","id":"1220562","publisher":"青岛出版社","isbn10":"7543632608","isbn13":"9787543632608","title":"满月之夜白鲸现","url":"http:\/\/api.douban.com\/v2\/book\/1220562","alt_title":"","author_intro":"","summary":"那一年，是听莫扎特、钓鲈鱼和家庭破裂的一年。说到家庭破裂，母亲怪自己当初没有找到好男人，父亲则认为当时是被狐狸精迷住了眼，失常的是母亲，但出问题的是父亲……。","price":"15.00元"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alt
-Expected: http://book.douban.com/subject/1220562/
-     got: https://book.douban.com/subject/1220562/
- ; rating.numRaters
-Expected: 344
-     got: 350
- ; tags[name=片山恭一].count
-Expected: 133
-     got: 139
- ; tags[name=日本文学].count
-Expected: 60
-     got: 61
- ; tags[name=日本].count
-Expected: 62
-     got: 66
+    <t>2016-05-09 15:37:58</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:38:01</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:43:05</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:43:08</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:49:58</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:50:02</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:52:53</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:52:56</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:54:28</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:54:31</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:55:05</t>
+  </si>
+  <si>
+    <t>2016-05-09 15:55:09</t>
+  </si>
+  <si>
+    <t>2016-05-09 17:14:50</t>
+  </si>
+  <si>
+    <t>2016-05-09 17:14:54</t>
+  </si>
+  <si>
+    <t>2016-05-09 17:34:56</t>
+  </si>
+  <si>
+    <t>2016-05-09 17:35:00</t>
+  </si>
+  <si>
+    <t>2016-05-09 17:41:03</t>
+  </si>
+  <si>
+    <t>2016-05-09 17:41:06</t>
+  </si>
+  <si>
+    <t>2016-05-09 21:26:06</t>
+  </si>
+  <si>
+    <t>2016-05-09 21:26:10</t>
+  </si>
+  <si>
+    <t>2016-05-09 21:36:32</t>
+  </si>
+  <si>
+    <t>2016-05-09 21:36:35</t>
+  </si>
+  <si>
+    <t>2016-05-09 21:37:27</t>
+  </si>
+  <si>
+    <t>2016-05-09 21:37:30</t>
+  </si>
+  <si>
+    <t>2016-05-09 21:38:39</t>
+  </si>
+  <si>
+    <t>2016-05-09 21:38:42</t>
+  </si>
+  <si>
+    <t>2016-05-09 21:41:21</t>
+  </si>
+  <si>
+    <t>2016-05-09 21:41:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data[createTime=1461742013000].resourceType.id
+Expected: 1
+     got: 1
+ ; data[createTime=1461742013000].runStatus
+Expected: 1
+     got: 1
+ ; data[createTime=1461572468000].resourceType.id
+Expected: 1
+     got: 1
+ ; data[createTime=1461572468000].runStatus
+Expected: 1
+     got: 1
+ ; data[createTime=1461741827000].resourceType.id
+Expected: 1
+     got: 1
+ ; data[createTime=1461741827000].runStatus
+Expected: 1
+     got: 1
+ ; data[createTime=1461670796000].resourceType.id
+Expected: 1
+     got: 1
+ ; data[createTime=1461670796000].runStatus
+Expected: 0
+     got: 0
+ ; data[createTime=1461671049000].resourceType.id
+Expected: 1
+     got: 1
+ ; data[createTime=1461671049000].runStatus
+Expected: 1
+     got: 1
 </t>
   </si>
   <si>
-    <t>{"count":2,"start":0,"total":2,"books":[{"rating":{"max":10,"numRaters":23,"average":"7.4","min":0},"subtitle":"Pragmatic Functional Programming","author":["Richard Warburton"],"pubdate":"2014-4-7","tags":[{"count":25,"name":"Java","title":"Java"},{"count":18,"name":"Java8","title":"Java8"},{"count":15,"name":"lambda","title":"lambda"},{"count":5,"name":"FP","title":"FP"},{"count":4,"name":"编程语言","title":"编程语言"},{"count":4,"name":"英文版","title":"英文版"},{"count":4,"name":"计算机","title":"计算机"},{"count":3,"name":"程序设计","title":"程序设计"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s27245543.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"182","images":{"small":"http://img3.douban.com\/spic\/s27245543.jpg","large":"http://img3.douban.com\/lpic\/s27245543.jpg","medium":"http://img3.douban.com\/mpic\/s27245543.jpg"},"alt":"https:\/\/book.douban.com\/subject\/25801524\/","id":"25801524","publisher":"O'Reilly Media","isbn10":"1449370772","isbn13":"9781449370770","title":"Java 8 Lambdas","url":"http:\/\/api.douban.com\/v2\/book\/25801524","alt_title":"","author_intro":"Richard is an empirical technologist and solver of deep-dive technical problems. He has professionally worked on static analysis problems, verifying part of a compiler and developing advanced automated bug detection technology. More recently his career has been focussed on data analytics for high performance computing. He is a leader in the London Java Community, sits on their JCP Committee and organises the Adopt-a-JSR programs for Lambdas and Date and Time in Java 8. Richard is also a known conference speaker, having talked at JavaOne, DevoxxUK and JAX London. He obtained a PhD in Computer Science from The University of Warwick where his research focussed on compiler theory.","summary":"If you're an experienced Java programmer, Java 8 Lambdas shows you how to make use of your existing skills to adapt their thinking and your codebase to use lambda expressions properly. Starting with basic examples, this book is focused solely on Java 8 language changes and related API changes, so you don’t need to buy and read a 900 page book in order to brush up. Lambdas make a programmer's job easier, and this book will teach you how. Coverage includes introductory syntax for lambda expressions, method references that allow you to reuse existing named methods from your codebase, and the collection library in Java 8.","price":"USD 29.99"},{"rating":{"max":10,"numRaters":3,"average":"0.0","min":0},"subtitle":"Harnessing the Power Of Java 8 Lambda Expressions","author":["Venkat Subramaniam"],"pubdate":"2014-3-1","tags":[{"count":11,"name":"Java","title":"Java"},{"count":4,"name":"lambda","title":"lambda"},{"count":2,"name":"Functional","title":"Functional"},{"count":2,"name":"Java8","title":"Java8"},{"count":1,"name":"pragmatic","title":"pragmatic"},{"count":1,"name":"programming","title":"programming"},{"count":1,"name":"有电子版","title":"有电子版"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s27241342.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"160","images":{"small":"http://img3.douban.com\/spic\/s27241342.jpg","large":"http://img3.douban.com\/lpic\/s27241342.jpg","medium":"http://img3.douban.com\/mpic\/s27241342.jpg"},"alt":"https:\/\/book.douban.com\/subject\/25830739\/","id":"25830739","publisher":"Pragmatic Bookshelf","isbn10":"1937785467","isbn13":"9781937785468","title":"Functional Programming in Java","url":"http:\/\/api.douban.com\/v2\/book\/25830739","alt_title":"","author_intro":"","summary":"","price":"USD 33.00"}]}</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>2016-04-16 16:10:48</t>
-  </si>
-  <si>
-    <t>2016-04-16 16:10:52</t>
-  </si>
-  <si>
-    <t>cassandra:SELECT page_info_json FROM page where uuid=''</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-04-17 14:55:54</t>
-  </si>
-  <si>
-    <t>2016-04-17 14:56:02</t>
-  </si>
-  <si>
-    <t>{"rating":{"max":10,"numRaters":351,"average":"7.0","min":0},"subtitle":"","author":["[日] 片山恭一"],"pubdate":"2005-1","tags":[{"count":139,"name":"片山恭一","title":"片山恭一"},{"count":66,"name":"日本","title":"日本"},{"count":61,"name":"日本文学","title":"日本文学"},{"count":38,"name":"小说","title":"小说"},{"count":32,"name":"满月之夜白鲸现","title":"满月之夜白鲸现"},{"count":15,"name":"爱情","title":"爱情"},{"count":8,"name":"純愛","title":"純愛"},{"count":8,"name":"外国文学","title":"外国文学"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s1747553.jpg","binding":"平装","translator":["豫人"],"catalog":"\n      ","pages":"180","images":{"small":"http://img3.douban.com\/spic\/s1747553.jpg","large":"http://img3.douban.com\/lpic\/s1747553.jpg","medium":"http://img3.douban.com\/mpic\/s1747553.jpg"},"alt":"https:\/\/book.douban.com\/subject\/1220562\/","id":"1220562","publisher":"青岛出版社","isbn10":"7543632608","isbn13":"9787543632608","title":"满月之夜白鲸现","url":"http:\/\/api.douban.com\/v2\/book\/1220562","alt_title":"","author_intro":"","summary":"那一年，是听莫扎特、钓鲈鱼和家庭破裂的一年。说到家庭破裂，母亲怪自己当初没有找到好男人，父亲则认为当时是被狐狸精迷住了眼，失常的是母亲，但出问题的是父亲……。","price":"15.00元"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alt
-Expected: http://book.douban.com/subject/1220562/
-     got: https://book.douban.com/subject/1220562/
- ; rating.numRaters
-Expected: 344
-     got: 351
- ; tags[name=片山恭一].count
-Expected: 133
-     got: 139
- ; tags[name=日本文学].count
-Expected: 60
-     got: 61
- ; tags[name=日本].count
-Expected: 62
-     got: 66
+    <t>2016-05-09 21:52:44</t>
+  </si>
+  <si>
+    <t>2016-05-09 21:52:47</t>
+  </si>
+  <si>
+    <t>2016-05-09 21:56:15</t>
+  </si>
+  <si>
+    <t>2016-05-09 21:56:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data[createTime=1461742013000].resourceType.id
+Expected: 1
+     got: 1
+ ; data[createTime=1461572468000].resourceType.id
+Expected: 1
+     got: 1
+ ; data[createTime=1461741827000].resourceType.id
+Expected: 1
+     got: 1
+ ; data[createTime=1461670796000].resourceType.id
+Expected: 1
+     got: 1
+ ; data[createTime=1461671049000].resourceType.id
+Expected: 1
+     got: 1
 </t>
   </si>
   <si>
-    <t>{"count":2,"start":0,"total":2,"books":[{"rating":{"max":10,"numRaters":24,"average":"7.4","min":0},"subtitle":"Pragmatic Functional Programming","author":["Richard Warburton"],"pubdate":"2014-4-7","tags":[{"count":25,"name":"Java","title":"Java"},{"count":18,"name":"Java8","title":"Java8"},{"count":15,"name":"lambda","title":"lambda"},{"count":5,"name":"FP","title":"FP"},{"count":4,"name":"编程语言","title":"编程语言"},{"count":4,"name":"英文版","title":"英文版"},{"count":4,"name":"计算机","title":"计算机"},{"count":3,"name":"程序设计","title":"程序设计"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s27245543.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"182","images":{"small":"http://img3.douban.com\/spic\/s27245543.jpg","large":"http://img3.douban.com\/lpic\/s27245543.jpg","medium":"http://img3.douban.com\/mpic\/s27245543.jpg"},"alt":"https:\/\/book.douban.com\/subject\/25801524\/","id":"25801524","publisher":"O'Reilly Media","isbn10":"1449370772","isbn13":"9781449370770","title":"Java 8 Lambdas","url":"http:\/\/api.douban.com\/v2\/book\/25801524","alt_title":"","author_intro":"Richard is an empirical technologist and solver of deep-dive technical problems. He has professionally worked on static analysis problems, verifying part of a compiler and developing advanced automated bug detection technology. More recently his career has been focussed on data analytics for high performance computing. He is a leader in the London Java Community, sits on their JCP Committee and organises the Adopt-a-JSR programs for Lambdas and Date and Time in Java 8. Richard is also a known conference speaker, having talked at JavaOne, DevoxxUK and JAX London. He obtained a PhD in Computer Science from The University of Warwick where his research focussed on compiler theory.","summary":"If you're an experienced Java programmer, Java 8 Lambdas shows you how to make use of your existing skills to adapt their thinking and your codebase to use lambda expressions properly. Starting with basic examples, this book is focused solely on Java 8 language changes and related API changes, so you don’t need to buy and read a 900 page book in order to brush up. Lambdas make a programmer's job easier, and this book will teach you how. Coverage includes introductory syntax for lambda expressions, method references that allow you to reuse existing named methods from your codebase, and the collection library in Java 8.","price":"USD 29.99"},{"rating":{"max":10,"numRaters":3,"average":"0.0","min":0},"subtitle":"Harnessing the Power Of Java 8 Lambda Expressions","author":["Venkat Subramaniam"],"pubdate":"2014-3-1","tags":[{"count":11,"name":"Java","title":"Java"},{"count":4,"name":"lambda","title":"lambda"},{"count":2,"name":"Functional","title":"Functional"},{"count":2,"name":"Java8","title":"Java8"},{"count":1,"name":"pragmatic","title":"pragmatic"},{"count":1,"name":"programming","title":"programming"},{"count":1,"name":"有电子版","title":"有电子版"}],"origin_title":"","image":"http://img3.douban.com\/mpic\/s27241342.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"160","images":{"small":"http://img3.douban.com\/spic\/s27241342.jpg","large":"http://img3.douban.com\/lpic\/s27241342.jpg","medium":"http://img3.douban.com\/mpic\/s27241342.jpg"},"alt":"https:\/\/book.douban.com\/subject\/25830739\/","id":"25830739","publisher":"Pragmatic Bookshelf","isbn10":"1937785467","isbn13":"9781937785468","title":"Functional Programming in Java","url":"http:\/\/api.douban.com\/v2\/book\/25830739","alt_title":"","author_intro":"","summary":"","price":"USD 33.00"}]}</t>
-  </si>
-  <si>
-    <t>2016-05-06 23:08:03</t>
-  </si>
-  <si>
-    <t>2016-05-06 23:08:13</t>
+    <t>2016-05-09 21:58:42</t>
+  </si>
+  <si>
+    <t>2016-05-09 21:58:46</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:04:17</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:04:20</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:05:13</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:05:16</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:05:58</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:06:01</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:07:07</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:07:11</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:07:36</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:07:40</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:18:29</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:18:32</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:21:04</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:21:07</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:23:27</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:23:30</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:27:39</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:27:43</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:28:15</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:28:19</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:29:05</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:29:09</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:29:55</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:29:58</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:33:32</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:33:36</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:35:57</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:36:01</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:37:21</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:37:25</t>
+  </si>
+  <si>
+    <t>data[]: Expected 1 values but got 5</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:39:52</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:39:55</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:43:05</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:43:08</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:48:12</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:48:15</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:53:09</t>
+  </si>
+  <si>
+    <t>2016-05-09 22:53:11</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:02:29</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:02:32</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:04:15</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:04:17</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:10:53</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:10:56</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:15:07</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:15:09</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:16:49</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:16:52</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:19:41</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:19:44</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:29:09</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:29:12</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:30:35</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:30:38</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:32:26</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:32:29</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:32:45</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:32:47</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:33:15</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:33:17</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:34:03</t>
+  </si>
+  <si>
+    <t>2016-05-09 23:34:07</t>
   </si>
 </sst>
 </file>
@@ -790,17 +1088,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="18.625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="38.125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="24.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="42.25" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="36.5" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="35.625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="48.375" collapsed="true"/>
@@ -841,181 +1139,94 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1031,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1045,90 +1256,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1152,68 +1330,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1228,74 +1395,7 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1310,96 +1410,85 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
